--- a/2023_Nov_04_MD_PNP_feeder_map.xlsx
+++ b/2023_Nov_04_MD_PNP_feeder_map.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\PNP-Files-N4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3C26A9-C26A-47E2-AEA5-C5D360A122EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4F532E-F943-4351-B0CF-DDFD8E32DB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="503" windowWidth="28996" windowHeight="15794" xr2:uid="{3FAB8597-0EE9-4EE9-B830-D41C10489524}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="71">
   <si>
     <t xml:space="preserve">Feeder </t>
   </si>
@@ -240,6 +240,15 @@
   </si>
   <si>
     <t>P2</t>
+  </si>
+  <si>
+    <t>Epcb</t>
+  </si>
+  <si>
+    <t>Mpcb</t>
+  </si>
+  <si>
+    <t>Offset</t>
   </si>
 </sst>
 </file>
@@ -591,23 +600,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA48EEC5-EA9B-4E63-9327-4B409059C3D5}">
-  <dimension ref="A1:O110"/>
+  <dimension ref="A1:V110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>60</v>
       </c>
       <c r="F1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -626,8 +638,17 @@
       <c r="K2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -649,8 +670,21 @@
       <c r="K3">
         <v>93.66</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3">
+        <v>60</v>
+      </c>
+      <c r="Q3">
+        <v>341.33</v>
+      </c>
+      <c r="R3">
+        <f>Q3-P3</f>
+        <v>281.33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -669,8 +703,21 @@
       <c r="K4">
         <v>70.05</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>112.48</v>
+      </c>
+      <c r="R4">
+        <f>Q4-P4</f>
+        <v>107.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="F5" t="s">
         <v>65</v>
       </c>
@@ -691,7 +738,7 @@
         <v>81.85499999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -735,7 +782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -782,7 +829,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -829,7 +876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -876,7 +923,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -923,7 +970,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -969,8 +1016,11 @@
       <c r="O17">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="V17">
+        <v>284.51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1017,7 +1067,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1064,7 +1114,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1111,7 +1161,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1158,7 +1208,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1205,7 +1255,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1252,7 +1302,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -1299,7 +1349,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -1346,7 +1396,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1393,7 +1443,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1440,7 +1490,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1487,7 +1537,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1531,7 +1581,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1575,7 +1625,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -1619,7 +1669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>14</v>
       </c>
